--- a/Documentacion/Product Backlog/03_Product_Backlog.xlsx
+++ b/Documentacion/Product Backlog/03_Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMACION\MIN TIC\CICLO 3\PROYECTO\ENCUMA_BUMA\Documentacion\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7C652B-8778-4F73-AE84-F8256E843122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA20B70-8B37-4BFC-8B4F-484A778CE0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
   <si>
     <t>Increment Plan</t>
   </si>
@@ -264,12 +264,6 @@
     <t xml:space="preserve"> Se Desarrolla Product Backlog Priorizado</t>
   </si>
   <si>
-    <t>Stack: MEVN
-Front: Vue
-Back: JavaScript, Express, Node
-BD: Mongo</t>
-  </si>
-  <si>
     <t>Construccion Historias de Usuario Spring 1</t>
   </si>
   <si>
@@ -364,6 +358,12 @@
   </si>
   <si>
     <t>H010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Front: Html, CSS, JavaScript
+Back: Java
+BD: MySql</t>
   </si>
 </sst>
 </file>
@@ -804,9 +804,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,15 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1033,6 +1021,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2834,76 +2834,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-    </row>
-    <row r="2" spans="1:26" s="85" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+    </row>
+    <row r="2" spans="1:26" s="81" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="J2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60">
+      <c r="A3" s="56">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <f>IF(OR(B14="",A3=""),"",B14)</f>
         <v>44445</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="55">
         <f>ROUND((SUMIF(A14:A21,A3,F14:F21)/8),0)</f>
         <v>5</v>
       </c>
@@ -2928,13 +2928,13 @@
       <c r="I3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="58">
         <f>(F3/E3)</f>
         <v>1.0743801652892562</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4:B8" si="1">IF(A4="","",B3+C3)</f>
         <v/>
@@ -2957,10 +2957,10 @@
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="62"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2983,10 +2983,10 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="62"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3009,10 +3009,10 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="62"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3035,10 +3035,10 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="62"/>
+      <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3058,10 +3058,10 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="62"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="str">
         <f>IF(A9="","",SUMIF(J$14:J$29,A9,C$14:C$29))</f>
@@ -3079,79 +3079,79 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="63"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
     </row>
     <row r="13" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="81" t="s">
+      <c r="G13" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="81" t="s">
+      <c r="I13" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="80" t="s">
+      <c r="J13" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="82" t="s">
+      <c r="K13" s="78" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="2"/>
@@ -3177,7 +3177,7 @@
       <c r="B14" s="13">
         <v>44445</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="53">
         <f>+F14*1/F$14</f>
         <v>1</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="58">
         <f>(F14/E14)-1</f>
         <v>7.6923076923076872E-2</v>
       </c>
@@ -3216,7 +3216,7 @@
         <f t="shared" ref="B15:B26" si="3">IF(AND(B14&lt;&gt;"",C14&lt;&gt;"",C15&lt;&gt;""),B14+C14,"")</f>
         <v>44446</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="53">
         <f t="shared" ref="C15:C21" si="4">+F15*1/F$14</f>
         <v>0.2857142857142857</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="J15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="58">
         <f t="shared" ref="K15:K21" si="5">(F15/E15)-1</f>
         <v>0.11111111111111116</v>
       </c>
@@ -3255,7 +3255,7 @@
         <f t="shared" si="3"/>
         <v>44446.285714285717</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="53">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="58">
         <f t="shared" si="5"/>
         <v>7.1428571428571397E-2</v>
       </c>
@@ -3294,7 +3294,7 @@
         <f t="shared" si="3"/>
         <v>44446.71428571429</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="53">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="J17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="62">
+      <c r="K17" s="58">
         <f t="shared" si="5"/>
         <v>0.11111111111111094</v>
       </c>
@@ -3333,7 +3333,7 @@
         <f t="shared" si="3"/>
         <v>44447.142857142862</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="53">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="J18" s="3">
         <v>1</v>
       </c>
-      <c r="K18" s="62">
+      <c r="K18" s="58">
         <f t="shared" si="5"/>
         <v>2.941176470588247E-2</v>
       </c>
@@ -3372,7 +3372,7 @@
         <f t="shared" si="3"/>
         <v>44448.142857142862</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="53">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="62">
+      <c r="K19" s="58">
         <f t="shared" si="5"/>
         <v>6.0606060606060552E-2</v>
       </c>
@@ -3411,7 +3411,7 @@
         <f t="shared" si="3"/>
         <v>44449.142857142862</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="53">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
@@ -3437,7 +3437,7 @@
       <c r="J20" s="5">
         <v>1</v>
       </c>
-      <c r="K20" s="62">
+      <c r="K20" s="58">
         <f t="shared" si="5"/>
         <v>8.6956521739130599E-2</v>
       </c>
@@ -3450,7 +3450,7 @@
         <f t="shared" si="3"/>
         <v>44449.857142857145</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="53">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
@@ -3476,7 +3476,7 @@
       <c r="J21" s="5">
         <v>1</v>
       </c>
-      <c r="K21" s="62">
+      <c r="K21" s="58">
         <f t="shared" si="5"/>
         <v>0.11111111111111116</v>
       </c>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="H22" s="7"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="68"/>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -3520,7 +3520,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="20"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="68"/>
+      <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
@@ -3592,7 +3592,7 @@
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="1:12" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -3600,66 +3600,66 @@
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="79"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="75"/>
     </row>
     <row r="30" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="111" t="s">
-        <v>52</v>
+      <c r="A30" s="107" t="s">
+        <v>51</v>
       </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="88">
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="84">
         <f>SUMIF('Product Backlog'!E$3:E$85,"",'Product Backlog'!D$3:D$85)-SUMIF('Product Backlog'!C$3:C$85,"Removed",'Product Backlog'!D$3:D$85)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="88"/>
+      <c r="F30" s="84"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="75"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="71"/>
     </row>
     <row r="31" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="110"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="88">
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="84">
         <f>SUM(E14:E29)</f>
         <v>36.300000000000004</v>
       </c>
-      <c r="F31" s="88">
+      <c r="F31" s="84">
         <f>SUM(F14:F29)</f>
         <v>39</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:12" s="86" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="89" t="s">
+    <row r="32" spans="1:12" s="82" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="87"/>
+      <c r="H32" s="83"/>
     </row>
     <row r="33" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D33" s="22"/>
@@ -6713,8 +6713,8 @@
   </sheetPr>
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6731,17 +6731,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
       <c r="L1" s="28"/>
@@ -6761,31 +6761,31 @@
       <c r="Z1" s="28"/>
     </row>
     <row r="2" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="93" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="28"/>
@@ -6810,28 +6810,28 @@
       <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <v>3</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>0</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>1</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="39"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
@@ -6854,28 +6854,28 @@
       <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>8</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>0</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>1</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="39"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
@@ -6898,28 +6898,28 @@
       <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>20</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>0</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>1</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>44</v>
+      <c r="H5" s="109" t="s">
+        <v>76</v>
       </c>
-      <c r="I5" s="39"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
@@ -6942,28 +6942,28 @@
       <c r="A6" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>13</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>0</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <v>1</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="34" t="s">
-        <v>45</v>
+      <c r="H6" s="109" t="s">
+        <v>44</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -6986,28 +6986,28 @@
       <c r="A7" s="29">
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>13</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>0</v>
       </c>
       <c r="F7" s="29">
         <v>1</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>46</v>
+      <c r="H7" s="109" t="s">
+        <v>45</v>
       </c>
-      <c r="I7" s="39"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
@@ -7030,28 +7030,28 @@
       <c r="A8" s="29">
         <v>6</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>13</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>0</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>1</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>47</v>
+      <c r="H8" s="109" t="s">
+        <v>46</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -7074,30 +7074,30 @@
       <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>48</v>
+      <c r="B9" s="32" t="s">
+        <v>47</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>13</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>0</v>
       </c>
       <c r="F9" s="29">
         <v>1</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="34" t="s">
-        <v>49</v>
+      <c r="H9" s="109" t="s">
+        <v>48</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="40"/>
+      <c r="K9" s="36"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -7118,28 +7118,28 @@
       <c r="A10" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>50</v>
+      <c r="B10" s="32" t="s">
+        <v>49</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>8</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>0</v>
       </c>
       <c r="F10" s="29">
         <v>2</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="35" t="s">
-        <v>51</v>
+      <c r="H10" s="110" t="s">
+        <v>50</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
@@ -7158,56 +7158,56 @@
       <c r="Y10" s="28"/>
       <c r="Z10" s="28"/>
     </row>
-    <row r="11" spans="1:26" s="106" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="105"/>
-      <c r="W11" s="105"/>
-      <c r="X11" s="105"/>
-      <c r="Y11" s="105"/>
-      <c r="Z11" s="105"/>
-    </row>
-    <row r="12" spans="1:26" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
-        <v>58</v>
+    <row r="11" spans="1:26" s="102" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="95"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+    </row>
+    <row r="12" spans="1:26" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>57</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>56</v>
+      <c r="B12" s="32" t="s">
+        <v>55</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33">
+      <c r="D12" s="31"/>
+      <c r="E12" s="32">
         <v>1</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <v>1</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>68</v>
+      <c r="G12" s="32" t="s">
+        <v>67</v>
       </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -7226,26 +7226,28 @@
       <c r="Y12" s="28"/>
       <c r="Z12" s="28"/>
     </row>
-    <row r="13" spans="1:26" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
-        <v>59</v>
+    <row r="13" spans="1:26" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>58</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>57</v>
+      <c r="B13" s="32" t="s">
+        <v>56</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33">
+      <c r="D13" s="31"/>
+      <c r="E13" s="32">
         <v>1</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <v>1</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
+      <c r="G13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
@@ -7264,26 +7266,26 @@
       <c r="Y13" s="28"/>
       <c r="Z13" s="28"/>
     </row>
-    <row r="14" spans="1:26" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>60</v>
+    <row r="14" spans="1:26" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>59</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>69</v>
+      <c r="B14" s="32" t="s">
+        <v>68</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33">
+      <c r="D14" s="31"/>
+      <c r="E14" s="32">
         <v>2</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <v>1</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
@@ -7302,26 +7304,26 @@
       <c r="Y14" s="28"/>
       <c r="Z14" s="28"/>
     </row>
-    <row r="15" spans="1:26" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>61</v>
+    <row r="15" spans="1:26" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>60</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>65</v>
+      <c r="B15" s="32" t="s">
+        <v>64</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33">
+      <c r="D15" s="31"/>
+      <c r="E15" s="32">
         <v>2</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <v>1</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="89"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
@@ -7340,26 +7342,26 @@
       <c r="Y15" s="28"/>
       <c r="Z15" s="28"/>
     </row>
-    <row r="16" spans="1:26" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>62</v>
+    <row r="16" spans="1:26" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>61</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>55</v>
+      <c r="B16" s="32" t="s">
+        <v>54</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33">
+      <c r="D16" s="31"/>
+      <c r="E16" s="32">
         <v>3</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="32">
         <v>1</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="89"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -7378,26 +7380,26 @@
       <c r="Y16" s="28"/>
       <c r="Z16" s="28"/>
     </row>
-    <row r="17" spans="1:26" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>63</v>
+    <row r="17" spans="1:26" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>62</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>65</v>
+      <c r="B17" s="32" t="s">
+        <v>64</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33">
+      <c r="D17" s="31"/>
+      <c r="E17" s="32">
         <v>3</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="32">
         <v>1</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="89"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
@@ -7417,862 +7419,862 @@
       <c r="Z17" s="28"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="107" t="s">
-        <v>64</v>
+      <c r="A18" s="103" t="s">
+        <v>63</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+    </row>
+    <row r="19" spans="1:26" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C19" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-    </row>
-    <row r="19" spans="1:26" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="107" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+    </row>
+    <row r="20" spans="1:26" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B20" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C20" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-    </row>
-    <row r="20" spans="1:26" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="107" t="s">
-        <v>67</v>
+      <c r="D20" s="31"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+    </row>
+    <row r="21" spans="1:26" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="103" t="s">
+        <v>75</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B21" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C21" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-    </row>
-    <row r="21" spans="1:26" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="107" t="s">
-        <v>76</v>
+      <c r="D21" s="31"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+    </row>
+    <row r="22" spans="1:26" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="103" t="s">
+        <v>74</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B22" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C22" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-    </row>
-    <row r="22" spans="1:26" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-    </row>
-    <row r="23" spans="1:26" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-    </row>
-    <row r="24" spans="1:26" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-    </row>
-    <row r="25" spans="1:26" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+    </row>
+    <row r="23" spans="1:26" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+    </row>
+    <row r="24" spans="1:26" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="39"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+    </row>
+    <row r="25" spans="1:26" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
     </row>
     <row r="27" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
     </row>
     <row r="28" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
     </row>
     <row r="29" spans="1:26" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="47" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
     </row>
     <row r="30" spans="1:26" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="49" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
     </row>
     <row r="31" spans="1:26" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="49" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
     </row>
     <row r="32" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="44"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="44"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="44"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="44"/>
-      <c r="W40" s="44"/>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="44"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="44"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="44"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="44"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="44"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="44"/>
-      <c r="Z46" s="44"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
-      <c r="B47" s="56"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="26"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
       <c r="G47" s="27"/>
-      <c r="H47" s="56"/>
+      <c r="H47" s="52"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
@@ -8321,14 +8323,14 @@
       <c r="Z48" s="28"/>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
-      <c r="B49" s="56"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="26"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
       <c r="G49" s="27"/>
-      <c r="H49" s="56"/>
+      <c r="H49" s="52"/>
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
